--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2725557.873273253</v>
+        <v>-2727162.291199585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8983154.091635665</v>
+        <v>8983154.091635663</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15869959.43387828</v>
+        <v>15869959.43387829</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.9455259660927</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232951</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748739</v>
+        <v>64.70394438364812</v>
       </c>
       <c r="F11" t="n">
         <v>279.0877300443236</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358282</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274266</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212879</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.9019821538695</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078951</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.9427849810812</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586657</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247945</v>
+        <v>52.28032623324797</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092785</v>
+        <v>44.92018329092789</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725091</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>29.8567647580131</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599599</v>
+        <v>17.28089669599603</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577138</v>
+        <v>8.062435227577181</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.53545828076942</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>7.475382974551621</v>
       </c>
       <c r="S12" t="n">
-        <v>143.95569295046</v>
+        <v>16.16737725307211</v>
       </c>
       <c r="T12" t="n">
-        <v>66.359517502049</v>
+        <v>66.35951750204904</v>
       </c>
       <c r="U12" t="n">
         <v>225.8431737758271</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635317</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608959</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991647</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454941</v>
+        <v>52.04366448454945</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540123995</v>
+        <v>39.45850540123999</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082447</v>
+        <v>20.82715732082451</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918128</v>
+        <v>34.00797496992784</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554336</v>
+        <v>17.6327323255434</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219369</v>
+        <v>38.95117859219373</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403458</v>
+        <v>23.31201683403462</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.879185747056198</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015207</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569112</v>
+        <v>94.81001934569116</v>
       </c>
       <c r="U13" t="n">
         <v>158.4624508371643</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264401</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392031</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>97.92133969164931</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.2794799283976</v>
+        <v>90.79633765470695</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>254.9455259660927</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232953</v>
+        <v>226.8947259232951</v>
       </c>
       <c r="E14" t="n">
-        <v>218.5077060130781</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443236</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274268</v>
+        <v>183.1136930274266</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.0944345801432</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810814</v>
+        <v>98.26832636969269</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586659</v>
+        <v>258.4496229586657</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247967</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725108</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801327</v>
+        <v>43.39222303878132</v>
       </c>
       <c r="F15" t="n">
-        <v>17.2808966959962</v>
+        <v>17.28089669599603</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577351</v>
+        <v>8.062435227577181</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.53545828076763</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>7.475382974551636</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307228</v>
+        <v>16.16737725307211</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204921</v>
+        <v>66.35951750204904</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8431737758271</v>
+        <v>98.05485807843924</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>105.0122714520374</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>77.89438007991652</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454962</v>
+        <v>52.04366448454945</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45850540123999</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082468</v>
+        <v>20.82715732082451</v>
       </c>
       <c r="E16" t="n">
-        <v>18.6456469491815</v>
+        <v>18.64564694918133</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554357</v>
+        <v>17.6327323255434</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219391</v>
+        <v>38.95117859219373</v>
       </c>
       <c r="H16" t="n">
-        <v>33.7951591077224</v>
+        <v>23.31201683403462</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015229</v>
+        <v>89.78063875089808</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569133</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371645</v>
+        <v>158.4624508371643</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264403</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392033</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164948</v>
+        <v>97.92133969164931</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470712</v>
+        <v>90.79633765470695</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>139.0019010151877</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846373</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G17" t="n">
         <v>169.584297176142</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774034</v>
+        <v>67.97353966774037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209781</v>
+        <v>8.193986148208909</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306081</v>
+        <v>84.82378941306084</v>
       </c>
       <c r="W17" t="n">
         <v>106.3124996603389</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213949</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y17" t="n">
         <v>143.3094695989795</v>
@@ -1932,7 +1932,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>68.89618309516413</v>
+        <v>68.89618309516325</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I19" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>4.879185747056212</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>192.9532216912532</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
         <v>286.2507665345522</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>43.59452927951693</v>
       </c>
       <c r="X19" t="n">
-        <v>205.9085144436561</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>139.0019010151877</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846373</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761432</v>
+        <v>169.584297176142</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774034</v>
+        <v>67.97353966774037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.19398614820888</v>
+        <v>8.193986148209104</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306081</v>
+        <v>84.82378941306084</v>
       </c>
       <c r="W20" t="n">
         <v>106.3124996603389</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213949</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y20" t="n">
         <v>143.3094695989795</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.00095315743245</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>137.5210007052674</v>
+        <v>175.5219538626989</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>73.43103891219637</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747804</v>
+        <v>43.32229747747807</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>9.209174266753934</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951691</v>
+        <v>106.3474452636019</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>139.0019010151877</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846373</v>
+        <v>163.9475766846374</v>
       </c>
       <c r="G23" t="n">
         <v>169.584297176142</v>
       </c>
       <c r="H23" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774043</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148208893</v>
+        <v>8.193986148208921</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306081</v>
+        <v>84.82378941306084</v>
       </c>
       <c r="W23" t="n">
         <v>106.3124996603389</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213949</v>
+        <v>126.802631621395</v>
       </c>
       <c r="Y23" t="n">
         <v>143.3094695989795</v>
@@ -2400,13 +2400,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.00095315743246</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>7.47538297455165</v>
       </c>
       <c r="S24" t="n">
-        <v>43.47109799974837</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>141.1857419657776</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
         <v>202.20662642754</v>
@@ -2533,13 +2533,13 @@
         <v>286.2507665345522</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266753905</v>
+        <v>126.5285366467389</v>
       </c>
       <c r="W25" t="n">
-        <v>202.6602707426896</v>
+        <v>43.59452927951693</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>297.3726128735299</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983047</v>
+        <v>30.30344563983048</v>
       </c>
       <c r="T26" t="n">
         <v>95.74259691784482</v>
@@ -2652,7 +2652,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I27" t="n">
-        <v>38.00095315743245</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S27" t="n">
         <v>143.95569295046</v>
@@ -2731,7 +2731,7 @@
         <v>35.96017917173624</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338332</v>
+        <v>2.674752405338339</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969378</v>
+        <v>5.881918465969392</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785374</v>
+        <v>87.06647306785375</v>
       </c>
       <c r="T28" t="n">
         <v>107.4581816833928</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735297</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983031</v>
+        <v>30.30344563983047</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784466</v>
+        <v>95.74259691784482</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I30" t="n">
-        <v>38.00095315743245</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S30" t="n">
         <v>143.95569295046</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225092</v>
+        <v>64.69182682225107</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894145</v>
+        <v>52.10666773894161</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852598</v>
+        <v>33.47531965852613</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688279</v>
+        <v>31.29380928688295</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324487</v>
+        <v>30.28089466324502</v>
       </c>
       <c r="G31" t="n">
-        <v>51.5993409298952</v>
+        <v>51.59934092989536</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173609</v>
+        <v>35.96017917173624</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338175</v>
+        <v>2.674752405338339</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969221</v>
+        <v>5.881918465969392</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785359</v>
+        <v>87.06647306785375</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293508</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F32" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735297</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H32" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983031</v>
+        <v>30.30344563983054</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784466</v>
+        <v>95.74259691784489</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I33" t="n">
-        <v>38.00095315743245</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S33" t="n">
         <v>143.95569295046</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225092</v>
+        <v>64.69182682225114</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894145</v>
+        <v>52.10666773894168</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852598</v>
+        <v>33.4753196585262</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688279</v>
+        <v>31.29380928688302</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324487</v>
+        <v>30.28089466324509</v>
       </c>
       <c r="G34" t="n">
-        <v>51.5993409298952</v>
+        <v>51.59934092989543</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173609</v>
+        <v>35.96017917173631</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338175</v>
+        <v>2.67475240533841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969221</v>
+        <v>5.881918465969463</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785359</v>
+        <v>87.06647306785382</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748657</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293508</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683329</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199117</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G35" t="n">
-        <v>192.555278180866</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246439</v>
+        <v>90.94452067246462</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293293</v>
+        <v>31.16496715293312</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177849</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W35" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X35" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>5.548321524568042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>38.00095315743245</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>193.5930570349936</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3433,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H37" t="n">
-        <v>151.1003325314225</v>
+        <v>127.9424932279426</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.8149057650246</v>
       </c>
       <c r="J37" t="n">
-        <v>4.879185747056212</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>222.598335043079</v>
+        <v>2.64084699072913</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2507665345522</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V37" t="n">
-        <v>214.16109024613</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424096</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683329</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199117</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246439</v>
+        <v>90.94452067246468</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293295</v>
+        <v>31.16496715293317</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W38" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X38" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.885685723477037</v>
+        <v>5.885685723477264</v>
       </c>
       <c r="V39" t="n">
-        <v>193.593057034992</v>
+        <v>193.5930570349936</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.879185747056212</v>
+        <v>4.879185747056226</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>95.37291782891458</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.598335043079</v>
+        <v>2.640846990729186</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2507665345522</v>
+        <v>66.29327848220231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>32.18015527147818</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>177.7051226206943</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683329</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199117</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G41" t="n">
-        <v>192.555278180866</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246439</v>
+        <v>90.94452067246465</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293293</v>
+        <v>31.16496715293316</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W41" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X41" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3825,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>43.54927468200048</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477264</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>155.5921038775612</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3898,28 +3898,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>151.1003325314225</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.879185747056212</v>
+        <v>4.879185747056226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728958</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220208</v>
+        <v>101.8402508102844</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424096</v>
+        <v>66.56551028424118</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336687108</v>
+        <v>5.752167336687336</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.07261810046263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683329</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199117</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246439</v>
+        <v>90.94452067246468</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293295</v>
+        <v>31.16496715293317</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W44" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X44" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>38.00095315743245</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.475382974551636</v>
+        <v>7.47538297455165</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.885685723477037</v>
+        <v>5.885685723477264</v>
       </c>
       <c r="V45" t="n">
-        <v>155.5921038775589</v>
+        <v>155.5921038775612</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.879185747056212</v>
+        <v>4.879185747056226</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.20662642754</v>
+        <v>96.74575252916894</v>
       </c>
       <c r="T46" t="n">
-        <v>222.598335043079</v>
+        <v>2.640846990729186</v>
       </c>
       <c r="U46" t="n">
         <v>286.2507665345522</v>
       </c>
       <c r="V46" t="n">
-        <v>47.42159595654863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424096</v>
+        <v>66.56551028424118</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1268.893508560116</v>
+        <v>663.3919641743114</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.893508560116</v>
+        <v>663.3919641743114</v>
       </c>
       <c r="D11" t="n">
-        <v>1039.706916718404</v>
+        <v>663.3919641743114</v>
       </c>
       <c r="E11" t="n">
-        <v>782.9977708851982</v>
+        <v>598.0344445948687</v>
       </c>
       <c r="F11" t="n">
-        <v>501.0909728606289</v>
+        <v>316.1276465702995</v>
       </c>
       <c r="G11" t="n">
-        <v>213.4905177739341</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006738</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634136</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838409</v>
+        <v>419.6428849838406</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965333</v>
+        <v>676.5957134965332</v>
       </c>
       <c r="N11" t="n">
         <v>942.3201157893056</v>
@@ -5060,31 +5060,31 @@
         <v>1348.169550998291</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683111</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="T11" t="n">
-        <v>1393.47344745698</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="U11" t="n">
-        <v>1268.893508560116</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="V11" t="n">
-        <v>1268.893508560116</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="W11" t="n">
-        <v>1268.893508560116</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="X11" t="n">
-        <v>1268.893508560116</v>
+        <v>1181.972922684168</v>
       </c>
       <c r="Y11" t="n">
-        <v>1268.893508560116</v>
+        <v>920.9126974733949</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>421.3444839233114</v>
+        <v>149.5140903116498</v>
       </c>
       <c r="C12" t="n">
-        <v>375.9705614072226</v>
+        <v>104.140167795561</v>
       </c>
       <c r="D12" t="n">
-        <v>227.0361517459714</v>
+        <v>84.28486489934795</v>
       </c>
       <c r="E12" t="n">
-        <v>67.79869674051588</v>
+        <v>54.12651665893068</v>
       </c>
       <c r="F12" t="n">
-        <v>50.34324553243912</v>
+        <v>36.67106545085388</v>
       </c>
       <c r="G12" t="n">
-        <v>42.19937156518949</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="H12" t="n">
-        <v>42.19937156518949</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197351</v>
+        <v>42.5812777619735</v>
       </c>
       <c r="K12" t="n">
-        <v>344.5030460572797</v>
+        <v>344.5030460572793</v>
       </c>
       <c r="L12" t="n">
-        <v>528.2131517335615</v>
+        <v>528.2131517335611</v>
       </c>
       <c r="M12" t="n">
-        <v>761.9510481841598</v>
+        <v>761.9510481841594</v>
       </c>
       <c r="N12" t="n">
         <v>1016.283936160735</v>
@@ -5139,31 +5139,31 @@
         <v>1376.296732666068</v>
       </c>
       <c r="Q12" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R12" t="n">
         <v>1418.808682286724</v>
       </c>
       <c r="S12" t="n">
-        <v>1273.398891427674</v>
+        <v>1402.477998192711</v>
       </c>
       <c r="T12" t="n">
-        <v>1206.369075769038</v>
+        <v>1335.448182534076</v>
       </c>
       <c r="U12" t="n">
-        <v>978.2446578136575</v>
+        <v>1107.323764578695</v>
       </c>
       <c r="V12" t="n">
-        <v>743.0925495819147</v>
+        <v>872.1716563469522</v>
       </c>
       <c r="W12" t="n">
-        <v>617.9342996187513</v>
+        <v>617.9342996187506</v>
       </c>
       <c r="X12" t="n">
-        <v>539.1619061782568</v>
+        <v>410.0827994132178</v>
       </c>
       <c r="Y12" t="n">
-        <v>460.4807141783411</v>
+        <v>202.3225006482639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>193.8872148877189</v>
+        <v>204.4762474874063</v>
       </c>
       <c r="C13" t="n">
-        <v>154.0301387248502</v>
+        <v>164.6191713245377</v>
       </c>
       <c r="D13" t="n">
-        <v>132.9926060775528</v>
+        <v>143.5816386772402</v>
       </c>
       <c r="E13" t="n">
-        <v>114.158619260198</v>
+        <v>109.2301488086262</v>
       </c>
       <c r="F13" t="n">
-        <v>96.3477785273259</v>
+        <v>91.41930807575406</v>
       </c>
       <c r="G13" t="n">
-        <v>57.00315368672621</v>
+        <v>52.07468323515432</v>
       </c>
       <c r="H13" t="n">
-        <v>33.45566193517613</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45566193517613</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J13" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="K13" t="n">
         <v>150.4262071982333</v>
@@ -5224,25 +5224,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S13" t="n">
-        <v>1118.522851504368</v>
+        <v>989.44374473933</v>
       </c>
       <c r="T13" t="n">
-        <v>1022.755155195589</v>
+        <v>893.6760484305511</v>
       </c>
       <c r="U13" t="n">
-        <v>862.692073541888</v>
+        <v>733.6129667768498</v>
       </c>
       <c r="V13" t="n">
-        <v>737.0866921010394</v>
+        <v>608.0075853360012</v>
       </c>
       <c r="W13" t="n">
-        <v>576.748628829117</v>
+        <v>447.6695220640788</v>
       </c>
       <c r="X13" t="n">
         <v>348.7590779310997</v>
       </c>
       <c r="Y13" t="n">
-        <v>246.4565729529203</v>
+        <v>257.0456055526078</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>663.3919641743115</v>
+        <v>724.5839076402156</v>
       </c>
       <c r="C14" t="n">
-        <v>663.3919641743115</v>
+        <v>724.5839076402156</v>
       </c>
       <c r="D14" t="n">
-        <v>434.205372332599</v>
+        <v>495.3973157985033</v>
       </c>
       <c r="E14" t="n">
-        <v>213.4905177739343</v>
+        <v>495.3973157985033</v>
       </c>
       <c r="F14" t="n">
-        <v>213.4905177739343</v>
+        <v>213.490517773934</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739343</v>
+        <v>213.490517773934</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006768</v>
+        <v>83.71911784006738</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634137</v>
+        <v>217.1760266634135</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838406</v>
+        <v>419.6428849838405</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965333</v>
+        <v>676.595713496533</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893056</v>
+        <v>942.3201157893054</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569997</v>
@@ -5300,28 +5300,28 @@
         <v>1426.35957418021</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180211</v>
+        <v>1342.425801877035</v>
       </c>
       <c r="U14" t="n">
-        <v>1426.359574180211</v>
+        <v>1342.425801877035</v>
       </c>
       <c r="V14" t="n">
-        <v>1426.359574180211</v>
+        <v>1342.425801877035</v>
       </c>
       <c r="W14" t="n">
-        <v>1426.359574180211</v>
+        <v>1342.425801877035</v>
       </c>
       <c r="X14" t="n">
-        <v>1181.972922684169</v>
+        <v>1243.164866150073</v>
       </c>
       <c r="Y14" t="n">
-        <v>920.9126974733952</v>
+        <v>982.1046409392991</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163.1862703932341</v>
+        <v>421.3444839233103</v>
       </c>
       <c r="C15" t="n">
-        <v>117.8123478771452</v>
+        <v>246.8914546421833</v>
       </c>
       <c r="D15" t="n">
-        <v>97.95704498093197</v>
+        <v>97.95704498093201</v>
       </c>
       <c r="E15" t="n">
-        <v>67.79869674051452</v>
+        <v>54.12651665893068</v>
       </c>
       <c r="F15" t="n">
-        <v>50.34324553243754</v>
+        <v>36.67106545085387</v>
       </c>
       <c r="G15" t="n">
-        <v>42.19937156518768</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="H15" t="n">
-        <v>42.19937156518768</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197348</v>
+        <v>167.4114027489782</v>
       </c>
       <c r="K15" t="n">
-        <v>344.5030460572802</v>
+        <v>269.5868994255634</v>
       </c>
       <c r="L15" t="n">
-        <v>528.213151733562</v>
+        <v>453.2970051018451</v>
       </c>
       <c r="M15" t="n">
-        <v>761.9510481841603</v>
+        <v>687.0349015524434</v>
       </c>
       <c r="N15" t="n">
-        <v>1016.283936160735</v>
+        <v>941.3677895290186</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.72904549779</v>
+        <v>1151.812898866074</v>
       </c>
       <c r="P15" t="n">
-        <v>1376.296732666068</v>
+        <v>1301.380586034351</v>
       </c>
       <c r="Q15" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.35957418021</v>
       </c>
       <c r="R15" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.477998192712</v>
+        <v>1402.477998192711</v>
       </c>
       <c r="T15" t="n">
         <v>1335.448182534076</v>
       </c>
       <c r="U15" t="n">
-        <v>1107.323764578695</v>
+        <v>1236.402871343733</v>
       </c>
       <c r="V15" t="n">
-        <v>872.1716563469524</v>
+        <v>1130.329869877028</v>
       </c>
       <c r="W15" t="n">
-        <v>617.9342996187509</v>
+        <v>876.0925131488268</v>
       </c>
       <c r="X15" t="n">
-        <v>410.082799413218</v>
+        <v>668.241012943294</v>
       </c>
       <c r="Y15" t="n">
-        <v>202.3225006482641</v>
+        <v>589.5598209433783</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.5553542524427</v>
+        <v>188.9587444361472</v>
       </c>
       <c r="C16" t="n">
-        <v>164.6191713245358</v>
+        <v>149.1016682732786</v>
       </c>
       <c r="D16" t="n">
-        <v>143.5816386772381</v>
+        <v>128.0641356259811</v>
       </c>
       <c r="E16" t="n">
-        <v>124.7476518598831</v>
+        <v>109.2301488086262</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9368111270108</v>
+        <v>91.41930807575406</v>
       </c>
       <c r="G16" t="n">
-        <v>67.59218628641089</v>
+        <v>52.07468323515432</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45566193517615</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45566193517615</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="J16" t="n">
-        <v>28.52719148360421</v>
+        <v>28.5271914836042</v>
       </c>
       <c r="K16" t="n">
         <v>150.4262071982333</v>
@@ -5461,25 +5461,25 @@
         <v>1193.692862342905</v>
       </c>
       <c r="S16" t="n">
-        <v>1118.522851504368</v>
+        <v>1103.005348453109</v>
       </c>
       <c r="T16" t="n">
-        <v>1022.755155195589</v>
+        <v>878.158545379292</v>
       </c>
       <c r="U16" t="n">
-        <v>862.6920735418871</v>
+        <v>718.0954637255907</v>
       </c>
       <c r="V16" t="n">
-        <v>737.0866921010382</v>
+        <v>592.490082284742</v>
       </c>
       <c r="W16" t="n">
-        <v>576.7486288291157</v>
+        <v>432.1520190128197</v>
       </c>
       <c r="X16" t="n">
-        <v>477.8381846961364</v>
+        <v>333.2415748798406</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.1247123176444</v>
+        <v>241.5281025013487</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>268.4846024370204</v>
       </c>
       <c r="G17" t="n">
-        <v>97.1873325621298</v>
+        <v>97.18733256212981</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006767</v>
+        <v>83.71911784006765</v>
       </c>
       <c r="K17" t="n">
         <v>217.1760266634137</v>
@@ -5522,28 +5522,28 @@
         <v>419.6428849838406</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965336</v>
+        <v>676.5957134965327</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893059</v>
+        <v>942.320115789305</v>
       </c>
       <c r="O17" t="n">
-        <v>1179.900872569997</v>
+        <v>1179.900872569996</v>
       </c>
       <c r="P17" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.16955099829</v>
       </c>
       <c r="Q17" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="U17" t="n">
         <v>1418.08282049515</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>580.7441895679674</v>
+        <v>580.7441895679665</v>
       </c>
       <c r="C18" t="n">
-        <v>406.2911602868404</v>
+        <v>406.2911602868395</v>
       </c>
       <c r="D18" t="n">
-        <v>257.3567506255891</v>
+        <v>257.3567506255882</v>
       </c>
       <c r="E18" t="n">
-        <v>98.11929562013364</v>
+        <v>98.11929562013273</v>
       </c>
       <c r="F18" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="G18" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197347</v>
+        <v>42.58127776197345</v>
       </c>
       <c r="K18" t="n">
-        <v>144.7567744385587</v>
+        <v>144.7567744385586</v>
       </c>
       <c r="L18" t="n">
         <v>328.4668801148404</v>
@@ -5604,40 +5604,40 @@
         <v>562.2047765654386</v>
       </c>
       <c r="N18" t="n">
-        <v>915.2287711750406</v>
+        <v>816.5376645420138</v>
       </c>
       <c r="O18" t="n">
-        <v>1125.673880512095</v>
+        <v>1026.982773879069</v>
       </c>
       <c r="P18" t="n">
-        <v>1275.241567680373</v>
+        <v>1176.550461047347</v>
       </c>
       <c r="Q18" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="R18" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="S18" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="T18" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="U18" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="V18" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="W18" t="n">
-        <v>1164.571325558522</v>
+        <v>1164.571325558521</v>
       </c>
       <c r="X18" t="n">
-        <v>956.7198253529893</v>
+        <v>956.7198253529884</v>
       </c>
       <c r="Y18" t="n">
-        <v>748.9595265880355</v>
+        <v>748.9595265880346</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="C19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="D19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="E19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="F19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="G19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="H19" t="n">
-        <v>152.4606172533828</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45566193517614</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="K19" t="n">
         <v>150.4262071982333</v>
       </c>
       <c r="L19" t="n">
-        <v>361.9414135537029</v>
+        <v>361.9414135537028</v>
       </c>
       <c r="M19" t="n">
         <v>595.3436651297678</v>
@@ -5698,25 +5698,25 @@
         <v>1193.692862342905</v>
       </c>
       <c r="S19" t="n">
-        <v>1193.692862342905</v>
+        <v>998.7906182103263</v>
       </c>
       <c r="T19" t="n">
-        <v>1193.692862342905</v>
+        <v>773.9438151365091</v>
       </c>
       <c r="U19" t="n">
-        <v>904.5506739241657</v>
+        <v>484.8016267177695</v>
       </c>
       <c r="V19" t="n">
-        <v>649.8661857182789</v>
+        <v>230.1171385118826</v>
       </c>
       <c r="W19" t="n">
-        <v>360.4490156813183</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="X19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.4606172533828</v>
+        <v>186.0822604517645</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646657</v>
+        <v>810.9578074646645</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010965</v>
+        <v>687.3775825010953</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711885</v>
+        <v>574.4941758711874</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497868</v>
+        <v>434.0882152497857</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370217</v>
+        <v>268.4846024370206</v>
       </c>
       <c r="G20" t="n">
-        <v>97.1873325621298</v>
+        <v>97.18733256212981</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006761</v>
+        <v>83.71911784006765</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634137</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838406</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965333</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893061</v>
+        <v>942.3201157893056</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569997</v>
@@ -5774,28 +5774,28 @@
         <v>1426.35957418021</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="U20" t="n">
-        <v>1418.082820495151</v>
+        <v>1418.08282049515</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128422</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.01586183515</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550913</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.175355551945</v>
+        <v>952.1753555519437</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>696.0714445736767</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C21" t="n">
-        <v>521.6184152925497</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D21" t="n">
-        <v>372.6840056312984</v>
+        <v>334.2992044621747</v>
       </c>
       <c r="E21" t="n">
-        <v>213.4465506258429</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F21" t="n">
-        <v>66.91199265272789</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="G21" t="n">
-        <v>66.91199265272789</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="H21" t="n">
-        <v>66.91199265272789</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197347</v>
+        <v>42.58127776197345</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7567744385587</v>
+        <v>344.5030460572791</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148404</v>
+        <v>528.2131517335608</v>
       </c>
       <c r="M21" t="n">
-        <v>562.2047765654386</v>
+        <v>761.9510481841592</v>
       </c>
       <c r="N21" t="n">
-        <v>816.5376645420138</v>
+        <v>1016.283936160734</v>
       </c>
       <c r="O21" t="n">
-        <v>1026.982773879069</v>
+        <v>1226.729045497789</v>
       </c>
       <c r="P21" t="n">
-        <v>1176.550461047347</v>
+        <v>1376.296732666067</v>
       </c>
       <c r="Q21" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="R21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="S21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="T21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="U21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="V21" t="n">
-        <v>1418.808682286724</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="W21" t="n">
-        <v>1279.898580564231</v>
+        <v>1241.513779395108</v>
       </c>
       <c r="X21" t="n">
-        <v>1072.047080358699</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y21" t="n">
-        <v>864.2867815937448</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.4314695934557</v>
+        <v>647.3115253557222</v>
       </c>
       <c r="C22" t="n">
-        <v>402.4314695934557</v>
+        <v>478.3753424278153</v>
       </c>
       <c r="D22" t="n">
-        <v>402.4314695934557</v>
+        <v>328.2587030154796</v>
       </c>
       <c r="E22" t="n">
-        <v>254.5183760110626</v>
+        <v>180.3456094330865</v>
       </c>
       <c r="F22" t="n">
-        <v>107.6284285131523</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45566193517614</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45566193517614</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45566193517614</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="K22" t="n">
         <v>150.4262071982333</v>
       </c>
       <c r="L22" t="n">
-        <v>361.9414135537029</v>
+        <v>361.9414135537028</v>
       </c>
       <c r="M22" t="n">
         <v>595.3436651297678</v>
@@ -5935,25 +5935,25 @@
         <v>1193.692862342905</v>
       </c>
       <c r="S22" t="n">
-        <v>1193.692862342905</v>
+        <v>989.4437447393295</v>
       </c>
       <c r="T22" t="n">
-        <v>1193.692862342905</v>
+        <v>989.4437447393295</v>
       </c>
       <c r="U22" t="n">
-        <v>1149.932965901008</v>
+        <v>945.6838482974325</v>
       </c>
       <c r="V22" t="n">
-        <v>895.2484776951213</v>
+        <v>936.3816520683881</v>
       </c>
       <c r="W22" t="n">
-        <v>851.2135996350032</v>
+        <v>828.9599901859619</v>
       </c>
       <c r="X22" t="n">
-        <v>623.2240487369859</v>
+        <v>828.9599901859619</v>
       </c>
       <c r="Y22" t="n">
-        <v>402.4314695934557</v>
+        <v>828.9599901859619</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646649</v>
+        <v>810.9578074646644</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010957</v>
+        <v>687.3775825010952</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711877</v>
+        <v>574.4941758711872</v>
       </c>
       <c r="E23" t="n">
-        <v>434.088215249786</v>
+        <v>434.0882152497854</v>
       </c>
       <c r="F23" t="n">
-        <v>268.484602437021</v>
+        <v>268.4846024370204</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256212985</v>
+        <v>97.18733256212987</v>
       </c>
       <c r="H23" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I23" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K23" t="n">
         <v>217.1760266634137</v>
       </c>
       <c r="L23" t="n">
-        <v>419.6428849838406</v>
+        <v>419.6428849838408</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965331</v>
+        <v>676.5957134965329</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893053</v>
+        <v>942.3201157893052</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569997</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.16955099829</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="U23" t="n">
         <v>1418.08282049515</v>
@@ -6026,13 +6026,13 @@
         <v>1332.402225128422</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.01586183515</v>
       </c>
       <c r="X23" t="n">
         <v>1096.932395550913</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519442</v>
+        <v>952.1753555519437</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>536.8339895682212</v>
+        <v>202.9802207647312</v>
       </c>
       <c r="C24" t="n">
-        <v>362.3809602870942</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="D24" t="n">
-        <v>213.4465506258429</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="E24" t="n">
-        <v>213.4465506258429</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="F24" t="n">
-        <v>66.91199265272789</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="G24" t="n">
-        <v>66.91199265272789</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="H24" t="n">
-        <v>66.91199265272789</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="I24" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="J24" t="n">
-        <v>167.4114027489782</v>
+        <v>42.58127776197342</v>
       </c>
       <c r="K24" t="n">
-        <v>269.5868994255633</v>
+        <v>144.7567744385586</v>
       </c>
       <c r="L24" t="n">
-        <v>453.297005101845</v>
+        <v>328.4668801148403</v>
       </c>
       <c r="M24" t="n">
-        <v>687.0349015524432</v>
+        <v>562.2047765654385</v>
       </c>
       <c r="N24" t="n">
-        <v>941.3677895290184</v>
+        <v>816.5376645420138</v>
       </c>
       <c r="O24" t="n">
-        <v>1151.812898866073</v>
+        <v>1026.982773879069</v>
       </c>
       <c r="P24" t="n">
-        <v>1301.380586034351</v>
+        <v>1176.550461047347</v>
       </c>
       <c r="Q24" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180209</v>
       </c>
       <c r="R24" t="n">
         <v>1418.808682286723</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.898482286977</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.898482286977</v>
+        <v>1418.808682286723</v>
       </c>
       <c r="U24" t="n">
-        <v>1374.898482286977</v>
+        <v>1276.19682171523</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.898482286977</v>
+        <v>1041.044713483488</v>
       </c>
       <c r="W24" t="n">
-        <v>1120.661125558776</v>
+        <v>786.807356755286</v>
       </c>
       <c r="X24" t="n">
-        <v>912.8096253532431</v>
+        <v>578.9558565497532</v>
       </c>
       <c r="Y24" t="n">
-        <v>705.0493265882892</v>
+        <v>371.1955577847992</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.45566193517615</v>
+        <v>181.3687555175692</v>
       </c>
       <c r="C25" t="n">
-        <v>33.45566193517615</v>
+        <v>181.3687555175692</v>
       </c>
       <c r="D25" t="n">
-        <v>33.45566193517615</v>
+        <v>181.3687555175692</v>
       </c>
       <c r="E25" t="n">
-        <v>33.45566193517615</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45566193517615</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45566193517615</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45566193517615</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45566193517615</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="J25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360419</v>
       </c>
       <c r="K25" t="n">
         <v>150.4262071982333</v>
@@ -6169,28 +6169,28 @@
         <v>1193.692862342905</v>
       </c>
       <c r="R25" t="n">
-        <v>1193.692862342905</v>
+        <v>1071.448345347294</v>
       </c>
       <c r="S25" t="n">
-        <v>989.4437447393295</v>
+        <v>867.1992277437178</v>
       </c>
       <c r="T25" t="n">
-        <v>764.5969416655123</v>
+        <v>642.3524246699005</v>
       </c>
       <c r="U25" t="n">
-        <v>475.4547532467727</v>
+        <v>353.2102362511609</v>
       </c>
       <c r="V25" t="n">
-        <v>466.1525570177284</v>
+        <v>225.4036335776873</v>
       </c>
       <c r="W25" t="n">
-        <v>261.4452128331935</v>
+        <v>181.3687555175692</v>
       </c>
       <c r="X25" t="n">
-        <v>33.45566193517615</v>
+        <v>181.3687555175692</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.45566193517615</v>
+        <v>181.3687555175692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484139</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970976995</v>
+        <v>855.5350970977004</v>
       </c>
       <c r="F26" t="n">
-        <v>560.852377519896</v>
+        <v>560.8523775198969</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640424</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640424</v>
       </c>
       <c r="J26" t="n">
-        <v>125.7285602992351</v>
+        <v>285.3343284132207</v>
       </c>
       <c r="K26" t="n">
-        <v>259.1854691225811</v>
+        <v>552.4234848875326</v>
       </c>
       <c r="L26" t="n">
-        <v>875.1369298479541</v>
+        <v>1168.374945612905</v>
       </c>
       <c r="M26" t="n">
-        <v>1577.108156518551</v>
+        <v>1425.327774125598</v>
       </c>
       <c r="N26" t="n">
-        <v>2275.806013979188</v>
+        <v>2124.025631586234</v>
       </c>
       <c r="O26" t="n">
-        <v>2890.378950209997</v>
+        <v>2361.606388366926</v>
       </c>
       <c r="P26" t="n">
-        <v>3058.647628638291</v>
+        <v>2848.455787884987</v>
       </c>
       <c r="Q26" t="n">
-        <v>3136.83765182021</v>
+        <v>3136.837651820212</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.83765182021</v>
+        <v>3136.837651820212</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769876</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913467</v>
+        <v>3009.518416913468</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V26" t="n">
         <v>2657.402854331604</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273294</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224018</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640424</v>
       </c>
       <c r="J27" t="n">
         <v>201.6209643017782</v>
       </c>
       <c r="K27" t="n">
-        <v>565.6170456208163</v>
+        <v>565.6170456208162</v>
       </c>
       <c r="L27" t="n">
-        <v>1116.459093147523</v>
+        <v>1116.459093147522</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.057959477027</v>
+        <v>1429.057959477028</v>
       </c>
       <c r="N27" t="n">
         <v>1683.390847453603</v>
@@ -6367,25 +6367,25 @@
         <v>216.0791534981193</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275304</v>
+        <v>184.4692451275305</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414243</v>
+        <v>153.8824828414244</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280656</v>
+        <v>65.4385231428066</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640424</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640421</v>
+        <v>105.6461468555929</v>
       </c>
       <c r="K28" t="n">
-        <v>227.5451625702219</v>
+        <v>227.545162570222</v>
       </c>
       <c r="L28" t="n">
         <v>439.0603689256915</v>
@@ -6446,61 +6446,61 @@
         <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977011</v>
+        <v>855.5350970977007</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198979</v>
+        <v>560.8523775198975</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I29" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J29" t="n">
-        <v>267.3963475553214</v>
+        <v>117.9286793928677</v>
       </c>
       <c r="K29" t="n">
-        <v>400.8532563786674</v>
+        <v>251.3855882162136</v>
       </c>
       <c r="L29" t="n">
-        <v>1016.80471710404</v>
+        <v>453.8524465366405</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.775943774637</v>
+        <v>1023.203043234755</v>
       </c>
       <c r="N29" t="n">
-        <v>2417.473801235274</v>
+        <v>1721.900900695391</v>
       </c>
       <c r="O29" t="n">
-        <v>2655.054558015966</v>
+        <v>2336.4738369262</v>
       </c>
       <c r="P29" t="n">
-        <v>2823.323236444259</v>
+        <v>2823.323236444262</v>
       </c>
       <c r="Q29" t="n">
-        <v>3111.705100379484</v>
+        <v>3111.705100379486</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.83765182021</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769876</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913468</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273294</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X29" t="n">
         <v>2163.774811224019</v>
@@ -6531,25 +6531,25 @@
         <v>337.151065282067</v>
       </c>
       <c r="G30" t="n">
-        <v>199.928084549779</v>
+        <v>199.9280845497791</v>
       </c>
       <c r="H30" t="n">
-        <v>101.1215542055279</v>
+        <v>101.121554205528</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J30" t="n">
         <v>201.6209643017782</v>
       </c>
       <c r="K30" t="n">
-        <v>565.6170456208163</v>
+        <v>565.6170456208162</v>
       </c>
       <c r="L30" t="n">
-        <v>1116.459093147523</v>
+        <v>1116.459093147522</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.057959477027</v>
+        <v>1429.057959477028</v>
       </c>
       <c r="N30" t="n">
         <v>1683.390847453603</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147522</v>
+        <v>302.5256054147534</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986498</v>
+        <v>249.8926076986508</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981185</v>
+        <v>216.0791534981193</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275298</v>
+        <v>184.4692451275305</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414239</v>
+        <v>153.8824828414244</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475903</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H31" t="n">
-        <v>65.4385231428064</v>
+        <v>65.43852314280662</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640421</v>
+        <v>105.6461468555929</v>
       </c>
       <c r="K31" t="n">
-        <v>184.6357687510333</v>
+        <v>227.545162570222</v>
       </c>
       <c r="L31" t="n">
-        <v>396.1509751065029</v>
+        <v>439.0603689256915</v>
       </c>
       <c r="M31" t="n">
-        <v>629.5532266825678</v>
+        <v>672.4626205017564</v>
       </c>
       <c r="N31" t="n">
-        <v>862.8403108176902</v>
+        <v>905.7497046368788</v>
       </c>
       <c r="O31" t="n">
-        <v>1062.302396110711</v>
+        <v>1105.2117899299</v>
       </c>
       <c r="P31" t="n">
-        <v>1209.455985990033</v>
+        <v>1252.365379809222</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.3809356773</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703646</v>
+        <v>895.5419324703668</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762822</v>
+        <v>757.1606294762842</v>
       </c>
       <c r="W31" t="n">
-        <v>584.046644651126</v>
+        <v>584.0466446511277</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649132</v>
+        <v>472.3602789649146</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331875</v>
+        <v>367.8708850331888</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977014</v>
+        <v>855.5350970977012</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198983</v>
+        <v>560.8523775198978</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J32" t="n">
-        <v>117.9286793928677</v>
+        <v>285.3343284132208</v>
       </c>
       <c r="K32" t="n">
-        <v>572.2895466616668</v>
+        <v>739.6951956820199</v>
       </c>
       <c r="L32" t="n">
-        <v>774.7564049820937</v>
+        <v>1199.223669889926</v>
       </c>
       <c r="M32" t="n">
-        <v>1476.72763165269</v>
+        <v>1456.176498402619</v>
       </c>
       <c r="N32" t="n">
-        <v>2175.425489113327</v>
+        <v>1721.900900695391</v>
       </c>
       <c r="O32" t="n">
-        <v>2571.798229120229</v>
+        <v>2336.4738369262</v>
       </c>
       <c r="P32" t="n">
-        <v>3058.647628638291</v>
+        <v>2823.323236444262</v>
       </c>
       <c r="Q32" t="n">
-        <v>3136.83765182021</v>
+        <v>3111.705100379486</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.83765182021</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769876</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913468</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273294</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224019</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6768,25 +6768,25 @@
         <v>337.151065282067</v>
       </c>
       <c r="G33" t="n">
-        <v>199.928084549779</v>
+        <v>199.9280845497791</v>
       </c>
       <c r="H33" t="n">
-        <v>101.1215542055279</v>
+        <v>101.121554205528</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J33" t="n">
         <v>201.6209643017782</v>
       </c>
       <c r="K33" t="n">
-        <v>565.6170456208163</v>
+        <v>565.6170456208162</v>
       </c>
       <c r="L33" t="n">
-        <v>1116.459093147523</v>
+        <v>1116.459093147522</v>
       </c>
       <c r="M33" t="n">
-        <v>1429.057959477027</v>
+        <v>1429.057959477028</v>
       </c>
       <c r="N33" t="n">
         <v>1683.390847453603</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147522</v>
+        <v>302.5256054147539</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986498</v>
+        <v>249.8926076986512</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981185</v>
+        <v>216.0791534981197</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275298</v>
+        <v>184.4692451275308</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414239</v>
+        <v>153.8824828414246</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475903</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H34" t="n">
-        <v>65.4385231428064</v>
+        <v>65.43852314280669</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640421</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640421</v>
+        <v>105.6461468555938</v>
       </c>
       <c r="K34" t="n">
-        <v>184.6357687510333</v>
+        <v>227.5451625702229</v>
       </c>
       <c r="L34" t="n">
-        <v>396.1509751065029</v>
+        <v>439.0603689256924</v>
       </c>
       <c r="M34" t="n">
-        <v>629.5532266825678</v>
+        <v>672.4626205017573</v>
       </c>
       <c r="N34" t="n">
-        <v>862.8403108176902</v>
+        <v>905.7497046368798</v>
       </c>
       <c r="O34" t="n">
-        <v>1062.302396110711</v>
+        <v>1105.211789929901</v>
       </c>
       <c r="P34" t="n">
-        <v>1209.455985990033</v>
+        <v>1252.365379809223</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.3809356773</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703646</v>
+        <v>895.5419324703676</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762822</v>
+        <v>757.1606294762848</v>
       </c>
       <c r="W34" t="n">
-        <v>584.046644651126</v>
+        <v>584.0466446511284</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649132</v>
+        <v>472.3602789649153</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331875</v>
+        <v>367.8708850331894</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291579</v>
+        <v>955.8582442291591</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497059</v>
+        <v>809.0750081497069</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039151</v>
+        <v>672.988590403916</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666304</v>
+        <v>509.3796186666312</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H35" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I35" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926347</v>
+        <v>89.40148790926349</v>
       </c>
       <c r="K35" t="n">
-        <v>222.8583967326095</v>
+        <v>222.8583967326094</v>
       </c>
       <c r="L35" t="n">
-        <v>425.3252550530365</v>
+        <v>646.20172094851</v>
       </c>
       <c r="M35" t="n">
-        <v>848.6685792689364</v>
+        <v>960.714216956326</v>
       </c>
       <c r="N35" t="n">
-        <v>1226.438619249096</v>
+        <v>1226.438619249098</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029787</v>
+        <v>1464.01937602979</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458081</v>
+        <v>1632.288054458083</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>401.5861668406333</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C36" t="n">
-        <v>227.1331375595063</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D36" t="n">
-        <v>78.19872789825504</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E36" t="n">
-        <v>72.59436272192369</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F36" t="n">
-        <v>72.59436272192369</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G36" t="n">
-        <v>72.59436272192369</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H36" t="n">
-        <v>72.59436272192369</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I36" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116929</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077545</v>
+        <v>412.2597291502072</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840362</v>
+        <v>595.969834826489</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346345</v>
+        <v>829.7077312770872</v>
       </c>
       <c r="N36" t="n">
-        <v>822.2200346112097</v>
+        <v>1084.040619253662</v>
       </c>
       <c r="O36" t="n">
-        <v>1032.665143948265</v>
+        <v>1294.485728590717</v>
       </c>
       <c r="P36" t="n">
-        <v>1452.438721267367</v>
+        <v>1452.43872126737</v>
       </c>
       <c r="Q36" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R36" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="T36" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="U36" t="n">
-        <v>1474.802767791132</v>
+        <v>1696.982048652095</v>
       </c>
       <c r="V36" t="n">
-        <v>1239.65065955939</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W36" t="n">
-        <v>985.413302831188</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X36" t="n">
-        <v>777.5618026256552</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y36" t="n">
-        <v>569.8015038607014</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>191.7646305209603</v>
+        <v>597.7630376189416</v>
       </c>
       <c r="C37" t="n">
-        <v>191.7646305209603</v>
+        <v>597.7630376189416</v>
       </c>
       <c r="D37" t="n">
-        <v>191.7646305209603</v>
+        <v>597.7630376189416</v>
       </c>
       <c r="E37" t="n">
-        <v>191.7646305209603</v>
+        <v>597.7630376189416</v>
       </c>
       <c r="F37" t="n">
-        <v>191.7646305209603</v>
+        <v>450.8730901210312</v>
       </c>
       <c r="G37" t="n">
-        <v>191.7646305209603</v>
+        <v>282.4493585153932</v>
       </c>
       <c r="H37" t="n">
-        <v>39.13803200437193</v>
+        <v>153.2145168710067</v>
       </c>
       <c r="I37" t="n">
-        <v>39.13803200437193</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J37" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K37" t="n">
-        <v>156.1085772674291</v>
+        <v>156.1085772674292</v>
       </c>
       <c r="L37" t="n">
         <v>367.6237836228986</v>
@@ -7123,22 +7123,22 @@
         <v>995.1261148085252</v>
       </c>
       <c r="T37" t="n">
-        <v>770.279311734708</v>
+        <v>992.4585925956675</v>
       </c>
       <c r="U37" t="n">
-        <v>481.1371233159684</v>
+        <v>925.4956850378874</v>
       </c>
       <c r="V37" t="n">
-        <v>264.8127897340189</v>
+        <v>892.99047769296</v>
       </c>
       <c r="W37" t="n">
-        <v>197.574900558018</v>
+        <v>825.7525885169589</v>
       </c>
       <c r="X37" t="n">
-        <v>191.7646305209603</v>
+        <v>597.7630376189416</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.7646305209603</v>
+        <v>597.7630376189416</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291586</v>
+        <v>955.8582442291593</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497066</v>
+        <v>809.0750081497068</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039157</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666312</v>
+        <v>509.3796186666314</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379833</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J38" t="n">
-        <v>176.3145741559248</v>
+        <v>89.40148790926349</v>
       </c>
       <c r="K38" t="n">
-        <v>309.7714829792708</v>
+        <v>222.8583967326094</v>
       </c>
       <c r="L38" t="n">
-        <v>512.2383412996978</v>
+        <v>425.3252550530363</v>
       </c>
       <c r="M38" t="n">
-        <v>935.5816655155979</v>
+        <v>682.2780835657288</v>
       </c>
       <c r="N38" t="n">
-        <v>1201.30606780837</v>
+        <v>948.0024858585011</v>
       </c>
       <c r="O38" t="n">
-        <v>1438.886824589062</v>
+        <v>1371.345810074402</v>
       </c>
       <c r="P38" t="n">
-        <v>1607.155503017355</v>
+        <v>1539.614488502695</v>
       </c>
       <c r="Q38" t="n">
-        <v>1685.345526199274</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="39">
@@ -7230,61 +7230,61 @@
         <v>663.3690134737489</v>
       </c>
       <c r="C39" t="n">
-        <v>488.9159841926218</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D39" t="n">
-        <v>339.9815745313705</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E39" t="n">
-        <v>180.744119525915</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116929</v>
+        <v>173.093772818174</v>
       </c>
       <c r="K39" t="n">
-        <v>354.8459124694482</v>
+        <v>420.645034658582</v>
       </c>
       <c r="L39" t="n">
-        <v>538.5560181457299</v>
+        <v>604.3551403348637</v>
       </c>
       <c r="M39" t="n">
-        <v>772.2939145963282</v>
+        <v>838.0930367854619</v>
       </c>
       <c r="N39" t="n">
-        <v>1026.626802572903</v>
+        <v>1092.425924762037</v>
       </c>
       <c r="O39" t="n">
-        <v>1237.071911909958</v>
+        <v>1302.871034099092</v>
       </c>
       <c r="P39" t="n">
-        <v>1660.415236125858</v>
+        <v>1452.43872126737</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R39" t="n">
-        <v>1702.927185746514</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.927185746514</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="T39" t="n">
-        <v>1702.927185746514</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="U39" t="n">
-        <v>1696.982048652093</v>
+        <v>1696.982048652095</v>
       </c>
       <c r="V39" t="n">
         <v>1501.433506192505</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.13803200437195</v>
+        <v>508.1014557089915</v>
       </c>
       <c r="C40" t="n">
-        <v>39.13803200437195</v>
+        <v>508.1014557089915</v>
       </c>
       <c r="D40" t="n">
-        <v>39.13803200437195</v>
+        <v>508.1014557089915</v>
       </c>
       <c r="E40" t="n">
-        <v>39.13803200437195</v>
+        <v>360.1883621265983</v>
       </c>
       <c r="F40" t="n">
-        <v>39.13803200437195</v>
+        <v>360.1883621265983</v>
       </c>
       <c r="G40" t="n">
-        <v>39.13803200437195</v>
+        <v>191.7646305209604</v>
       </c>
       <c r="H40" t="n">
-        <v>39.13803200437195</v>
+        <v>39.138032004372</v>
       </c>
       <c r="I40" t="n">
-        <v>39.13803200437195</v>
+        <v>39.138032004372</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K40" t="n">
-        <v>156.1085772674291</v>
+        <v>156.1085772674292</v>
       </c>
       <c r="L40" t="n">
-        <v>367.6237836228987</v>
+        <v>367.6237836228986</v>
       </c>
       <c r="M40" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989635</v>
       </c>
       <c r="N40" t="n">
-        <v>834.3131193340861</v>
+        <v>834.313119334086</v>
       </c>
       <c r="O40" t="n">
         <v>1033.775204627107</v>
@@ -7357,25 +7357,25 @@
         <v>1199.375232412101</v>
       </c>
       <c r="S40" t="n">
-        <v>1103.038951776834</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="T40" t="n">
-        <v>878.1921487030168</v>
+        <v>1196.707710199243</v>
       </c>
       <c r="U40" t="n">
-        <v>589.0499602842772</v>
+        <v>1129.744802641463</v>
       </c>
       <c r="V40" t="n">
-        <v>334.3654720783903</v>
+        <v>1097.239595296536</v>
       </c>
       <c r="W40" t="n">
-        <v>44.94830204142963</v>
+        <v>917.7394714372485</v>
       </c>
       <c r="X40" t="n">
-        <v>39.13803200437195</v>
+        <v>689.7499205392312</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.13803200437195</v>
+        <v>689.7499205392312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291577</v>
+        <v>955.8582442291591</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497055</v>
+        <v>809.0750081497068</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039147</v>
+        <v>672.9885904039157</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666304</v>
+        <v>509.3796186666309</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379828</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H41" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I41" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J41" t="n">
         <v>256.8071369296165</v>
@@ -7430,31 +7430,31 @@
         <v>1521.257570087839</v>
       </c>
       <c r="Q41" t="n">
-        <v>1685.345526199274</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839057</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356446</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>357.5970004951782</v>
+        <v>701.7538146428725</v>
       </c>
       <c r="C42" t="n">
-        <v>183.1439712140512</v>
+        <v>527.3007853617455</v>
       </c>
       <c r="D42" t="n">
-        <v>34.2095615528</v>
+        <v>378.3663757004942</v>
       </c>
       <c r="E42" t="n">
-        <v>34.2095615528</v>
+        <v>219.1289206950388</v>
       </c>
       <c r="F42" t="n">
-        <v>34.2095615528</v>
+        <v>72.59436272192374</v>
       </c>
       <c r="G42" t="n">
-        <v>34.2095615528</v>
+        <v>72.59436272192374</v>
       </c>
       <c r="H42" t="n">
-        <v>34.2095615528</v>
+        <v>72.59436272192374</v>
       </c>
       <c r="I42" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116929</v>
       </c>
       <c r="K42" t="n">
-        <v>354.8459124694475</v>
+        <v>354.84591246945</v>
       </c>
       <c r="L42" t="n">
-        <v>538.5560181457292</v>
+        <v>538.5560181457316</v>
       </c>
       <c r="M42" t="n">
-        <v>772.2939145963276</v>
+        <v>772.2939145963298</v>
       </c>
       <c r="N42" t="n">
-        <v>1026.626802572903</v>
+        <v>1026.626802572905</v>
       </c>
       <c r="O42" t="n">
-        <v>1237.071911909958</v>
+        <v>1237.07191190996</v>
       </c>
       <c r="P42" t="n">
-        <v>1660.415236125858</v>
+        <v>1660.41523612586</v>
       </c>
       <c r="Q42" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R42" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="T42" t="n">
-        <v>1658.938019401058</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="U42" t="n">
-        <v>1430.813601445677</v>
+        <v>1696.982048652095</v>
       </c>
       <c r="V42" t="n">
-        <v>1195.661493213935</v>
+        <v>1539.818307361629</v>
       </c>
       <c r="W42" t="n">
-        <v>941.424136485733</v>
+        <v>1285.580950633427</v>
       </c>
       <c r="X42" t="n">
-        <v>733.5726362802002</v>
+        <v>1077.729450427894</v>
       </c>
       <c r="Y42" t="n">
-        <v>525.8123375152463</v>
+        <v>869.9691516629405</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>648.1295003727117</v>
+        <v>339.6777241033535</v>
       </c>
       <c r="C43" t="n">
-        <v>479.1933174448048</v>
+        <v>339.6777241033535</v>
       </c>
       <c r="D43" t="n">
-        <v>479.1933174448048</v>
+        <v>339.6777241033535</v>
       </c>
       <c r="E43" t="n">
-        <v>479.1933174448048</v>
+        <v>191.7646305209604</v>
       </c>
       <c r="F43" t="n">
-        <v>479.1933174448048</v>
+        <v>191.7646305209604</v>
       </c>
       <c r="G43" t="n">
-        <v>310.7695858391669</v>
+        <v>191.7646305209604</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1429873225786</v>
+        <v>39.138032004372</v>
       </c>
       <c r="I43" t="n">
-        <v>39.13803200437193</v>
+        <v>39.138032004372</v>
       </c>
       <c r="J43" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1085772674291</v>
+        <v>156.1085772674292</v>
       </c>
       <c r="L43" t="n">
         <v>367.6237836228986</v>
@@ -7591,28 +7591,28 @@
         <v>1199.375232412101</v>
       </c>
       <c r="R43" t="n">
-        <v>1077.130715416489</v>
+        <v>1199.375232412101</v>
       </c>
       <c r="S43" t="n">
-        <v>872.8815978129135</v>
+        <v>995.1261148085252</v>
       </c>
       <c r="T43" t="n">
-        <v>870.2140756000559</v>
+        <v>770.279311734708</v>
       </c>
       <c r="U43" t="n">
-        <v>803.251168042276</v>
+        <v>667.4103715222996</v>
       </c>
       <c r="V43" t="n">
-        <v>770.7459606973488</v>
+        <v>412.7258833164126</v>
       </c>
       <c r="W43" t="n">
-        <v>703.5080715213478</v>
+        <v>345.4879941404114</v>
       </c>
       <c r="X43" t="n">
-        <v>697.6978014842902</v>
+        <v>339.6777241033535</v>
       </c>
       <c r="Y43" t="n">
-        <v>648.1295003727117</v>
+        <v>339.6777241033535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291579</v>
+        <v>955.8582442291589</v>
       </c>
       <c r="C44" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497069</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666307</v>
+        <v>509.3796186666311</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379828</v>
+        <v>320.572994737983</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H44" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I44" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J44" t="n">
         <v>256.8071369296165</v>
@@ -7667,31 +7667,31 @@
         <v>1521.257570087839</v>
       </c>
       <c r="Q44" t="n">
-        <v>1685.345526199274</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="45">
@@ -7710,55 +7710,55 @@
         <v>378.3663757004942</v>
       </c>
       <c r="E45" t="n">
-        <v>219.1289206950387</v>
+        <v>219.1289206950388</v>
       </c>
       <c r="F45" t="n">
-        <v>72.59436272192369</v>
+        <v>72.59436272192374</v>
       </c>
       <c r="G45" t="n">
-        <v>72.59436272192369</v>
+        <v>72.59436272192374</v>
       </c>
       <c r="H45" t="n">
-        <v>72.59436272192369</v>
+        <v>72.59436272192374</v>
       </c>
       <c r="I45" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J45" t="n">
-        <v>56.64895333954109</v>
+        <v>48.26364783116929</v>
       </c>
       <c r="K45" t="n">
-        <v>420.6450346585791</v>
+        <v>150.4391445077545</v>
       </c>
       <c r="L45" t="n">
-        <v>604.3551403348608</v>
+        <v>334.1492501840361</v>
       </c>
       <c r="M45" t="n">
-        <v>838.0930367854592</v>
+        <v>567.8871466346343</v>
       </c>
       <c r="N45" t="n">
-        <v>1092.425924762034</v>
+        <v>822.2200346112095</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.871034099089</v>
+        <v>1032.665143948264</v>
       </c>
       <c r="P45" t="n">
-        <v>1452.438721267367</v>
+        <v>1452.43872126737</v>
       </c>
       <c r="Q45" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R45" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="T45" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746516</v>
       </c>
       <c r="U45" t="n">
-        <v>1696.982048652092</v>
+        <v>1696.982048652095</v>
       </c>
       <c r="V45" t="n">
         <v>1539.818307361629</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>360.1883621265982</v>
+        <v>39.138032004372</v>
       </c>
       <c r="C46" t="n">
-        <v>360.1883621265982</v>
+        <v>39.138032004372</v>
       </c>
       <c r="D46" t="n">
-        <v>360.1883621265982</v>
+        <v>39.138032004372</v>
       </c>
       <c r="E46" t="n">
-        <v>360.1883621265982</v>
+        <v>39.138032004372</v>
       </c>
       <c r="F46" t="n">
-        <v>360.1883621265982</v>
+        <v>39.138032004372</v>
       </c>
       <c r="G46" t="n">
-        <v>191.7646305209603</v>
+        <v>39.138032004372</v>
       </c>
       <c r="H46" t="n">
-        <v>39.13803200437194</v>
+        <v>39.138032004372</v>
       </c>
       <c r="I46" t="n">
-        <v>39.13803200437194</v>
+        <v>39.138032004372</v>
       </c>
       <c r="J46" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1085772674291</v>
+        <v>156.1085772674292</v>
       </c>
       <c r="L46" t="n">
-        <v>367.6237836228987</v>
+        <v>367.6237836228986</v>
       </c>
       <c r="M46" t="n">
-        <v>601.0260351989637</v>
+        <v>601.0260351989635</v>
       </c>
       <c r="N46" t="n">
-        <v>834.3131193340861</v>
+        <v>834.313119334086</v>
       </c>
       <c r="O46" t="n">
         <v>1033.775204627107</v>
@@ -7831,25 +7831,25 @@
         <v>1199.375232412101</v>
       </c>
       <c r="S46" t="n">
-        <v>995.1261148085255</v>
+        <v>1101.652250059405</v>
       </c>
       <c r="T46" t="n">
-        <v>770.2793117347082</v>
+        <v>1098.984727846547</v>
       </c>
       <c r="U46" t="n">
-        <v>481.1371233159687</v>
+        <v>809.8425394278075</v>
       </c>
       <c r="V46" t="n">
-        <v>433.2365213396569</v>
+        <v>555.1580512219207</v>
       </c>
       <c r="W46" t="n">
-        <v>365.9986321636559</v>
+        <v>487.9201620459194</v>
       </c>
       <c r="X46" t="n">
-        <v>360.1883621265982</v>
+        <v>259.9306111479021</v>
       </c>
       <c r="Y46" t="n">
-        <v>360.1883621265982</v>
+        <v>39.138032004372</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>201.7639107259808</v>
+        <v>201.7639107259804</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>201.7639107259814</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>75.67287538557184</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>99.68798649800686</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.0759242279745</v>
+        <v>201.7639107259803</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>201.7639107259803</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.7639107259812</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.6728753855721</v>
+        <v>201.7639107259804</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.878667582189358</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>134.982068334309</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.33000427628932</v>
+        <v>40.33000427628934</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>79.65754533222872</v>
+        <v>79.65754533222952</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>150.9774425883371</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>315.5533011973955</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>79.65754533222872</v>
+        <v>79.65754533222952</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>259.6581978661409</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>160.3959426527378</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.33000427628932</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>79.65754533222872</v>
+        <v>79.65754533222952</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>223.1075413085593</v>
       </c>
       <c r="M35" t="n">
-        <v>168.0712077810175</v>
+        <v>58.14107827790252</v>
       </c>
       <c r="N35" t="n">
-        <v>113.1774118054413</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628932</v>
+        <v>40.33000427628934</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>272.9352425765903</v>
+        <v>8.470005564014457</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>87.79099620874885</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>168.0712077810177</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>187.6389570052618</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>93.60966258120001</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628934</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>206.4714827895896</v>
+        <v>146.8442072361846</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>276.5410475228508</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.76558881769188</v>
+        <v>112.1520044143878</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628934</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>206.471482789589</v>
+        <v>206.4714827895914</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>276.5410475228505</v>
+        <v>276.5410475228512</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.76558881769213</v>
+        <v>112.1520044143878</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628934</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>8.470005564011942</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>272.9352425765933</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.9455259660927</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>237.4845760736197</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232951</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>189.4381099912258</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>183.1136930274266</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212884</v>
       </c>
       <c r="T11" t="n">
-        <v>68.19245242627366</v>
+        <v>83.0944345801432</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078951</v>
       </c>
       <c r="V11" t="n">
-        <v>199.963942772747</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200251</v>
+        <v>221.4526530200252</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810812</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736199</v>
+        <v>237.4845760736197</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.63434836179601</v>
+        <v>254.1420543748739</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358284</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212902</v>
+        <v>17.65528330212885</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014337</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>123.3341395078951</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727472</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200253</v>
+        <v>221.4526530200252</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>143.6744586113885</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26320,19 +26320,19 @@
         <v>102409.5423396298</v>
       </c>
       <c r="E2" t="n">
-        <v>87880.02722896033</v>
+        <v>87880.02722896023</v>
       </c>
       <c r="F2" t="n">
-        <v>87880.02722896027</v>
+        <v>87880.02722896026</v>
       </c>
       <c r="G2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="H2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="I2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="I2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330354</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224332</v>
+        <v>766266.5351224331</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774914</v>
+        <v>92112.12268774898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365101</v>
+        <v>111884.0815365102</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774914</v>
+        <v>92112.12268774892</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413093</v>
+        <v>83853.86775413097</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,31 +26424,31 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>161029.3996972914</v>
+        <v>161029.3996972913</v>
       </c>
       <c r="F4" t="n">
-        <v>161029.3996972912</v>
+        <v>161029.3996972913</v>
       </c>
       <c r="G4" t="n">
-        <v>228380.8004634458</v>
+        <v>228380.8004634457</v>
       </c>
       <c r="H4" t="n">
-        <v>228380.8004634458</v>
+        <v>228380.8004634457</v>
       </c>
       <c r="I4" t="n">
-        <v>228380.8004634458</v>
+        <v>228380.8004634457</v>
       </c>
       <c r="J4" t="n">
-        <v>226936.6235532809</v>
+        <v>226936.623553281</v>
       </c>
       <c r="K4" t="n">
-        <v>226936.623553281</v>
+        <v>226936.6235532811</v>
       </c>
       <c r="L4" t="n">
         <v>226936.623553281</v>
       </c>
       <c r="M4" t="n">
-        <v>228109.4307260195</v>
+        <v>228109.4307260196</v>
       </c>
       <c r="N4" t="n">
         <v>228109.4307260195</v>
@@ -26479,37 +26479,37 @@
         <v>47553.01820892902</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.018208929</v>
+        <v>47553.01820892901</v>
       </c>
       <c r="G5" t="n">
-        <v>57232.73576172448</v>
+        <v>57232.73576172446</v>
       </c>
       <c r="H5" t="n">
-        <v>57232.73576172448</v>
+        <v>57232.73576172446</v>
       </c>
       <c r="I5" t="n">
-        <v>57232.73576172447</v>
+        <v>57232.73576172446</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948879</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948879</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222715</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394368.7887624799</v>
+        <v>-394373.202340348</v>
       </c>
       <c r="C6" t="n">
-        <v>-394368.78876248</v>
+        <v>-394373.2023403481</v>
       </c>
       <c r="D6" t="n">
-        <v>-394368.78876248</v>
+        <v>-394373.2023403481</v>
       </c>
       <c r="E6" t="n">
-        <v>-886968.9257996933</v>
+        <v>-887263.9296797747</v>
       </c>
       <c r="F6" t="n">
-        <v>-120702.3906772598</v>
+        <v>-120997.3945573416</v>
       </c>
       <c r="G6" t="n">
-        <v>-275095.437679884</v>
+        <v>-275095.4376798837</v>
       </c>
       <c r="H6" t="n">
-        <v>-182983.3149921348</v>
+        <v>-182983.3149921347</v>
       </c>
       <c r="I6" t="n">
         <v>-182983.3149921348</v>
       </c>
       <c r="J6" t="n">
-        <v>-308679.4504862443</v>
+        <v>-308679.4504862446</v>
       </c>
       <c r="K6" t="n">
-        <v>-196795.3689497343</v>
+        <v>-196795.3689497344</v>
       </c>
       <c r="L6" t="n">
-        <v>-288907.4916374835</v>
+        <v>-288907.4916374834</v>
       </c>
       <c r="M6" t="n">
-        <v>-268953.2668593422</v>
+        <v>-268953.2668593423</v>
       </c>
       <c r="N6" t="n">
         <v>-185099.3991052113</v>
@@ -26561,7 +26561,7 @@
         <v>-185099.3991052113</v>
       </c>
       <c r="P6" t="n">
-        <v>-185099.3991052112</v>
+        <v>-185099.3991052113</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G2" t="n">
         <v>242.9284690570741</v>
@@ -26710,22 +26710,22 @@
         <v>115.1401533596862</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="N2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="O2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="P2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="3">
@@ -26759,25 +26759,25 @@
         <v>694.0053563773448</v>
       </c>
       <c r="J3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
       <c r="K3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
       <c r="L3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
       <c r="M3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
       <c r="N3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
       <c r="O3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
       <c r="P3" t="n">
-        <v>694.0053563773449</v>
+        <v>694.0053563773448</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450525</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450525</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450523</v>
       </c>
       <c r="H4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450523</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450525</v>
+        <v>356.5898935450523</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550526</v>
+        <v>784.2094129550529</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550526</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550526</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="M4" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="O4" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="P4" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194100006</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>104.8173346926637</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450525</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100001</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973879</v>
+        <v>114.2528574166194</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>24.46549487666302</v>
+        <v>38.00095315743244</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,10 +28217,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973879</v>
+        <v>112.4259876766413</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.879185747056198</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973879</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973879</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.3051734236972</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973877</v>
+        <v>114.2528574166196</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H15" t="n">
         <v>97.8184650408086</v>
       </c>
       <c r="I15" t="n">
-        <v>24.46549487666481</v>
+        <v>38.00095315743245</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,16 +28454,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H16" t="n">
-        <v>117.3051734237001</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I16" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.879185747056212</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973877</v>
+        <v>112.4259876766419</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="17">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>76.17302929821975</v>
+        <v>76.17302929822063</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
@@ -28737,10 +28737,10 @@
         <v>166.7394942895816</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,10 +28770,10 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S19" t="n">
-        <v>202.20662642754</v>
+        <v>9.253404736286797</v>
       </c>
       <c r="T19" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28782,10 +28782,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="X19" t="n">
-        <v>19.80114094538104</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28898,7 +28898,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.00095315743245</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>114.1739824556522</v>
+        <v>76.17302929822074</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.30845537738522</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H22" t="n">
         <v>151.1003325314225</v>
@@ -29007,7 +29007,7 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>222.598335043079</v>
@@ -29016,16 +29016,16 @@
         <v>242.9284690570741</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>242.9284690570741</v>
       </c>
       <c r="W22" t="n">
-        <v>242.9284690570741</v>
+        <v>180.1755530729891</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>135.850750924965</v>
@@ -29135,7 +29135,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>100.4845949507116</v>
+        <v>143.95569295046</v>
       </c>
       <c r="T24" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8431737758271</v>
+        <v>84.65743181004945</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29253,13 +29253,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>125.6091066770891</v>
+      </c>
+      <c r="W25" t="n">
         <v>242.9284690570741</v>
       </c>
-      <c r="W25" t="n">
-        <v>83.86272759390144</v>
-      </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29454,10 +29454,10 @@
         <v>115.1401533596862</v>
       </c>
       <c r="J28" t="n">
-        <v>4.879185747056212</v>
+        <v>48.22200778664075</v>
       </c>
       <c r="K28" t="n">
-        <v>43.34282203958446</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I29" t="n">
         <v>102.9155217242246</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="30">
@@ -29667,31 +29667,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
-        <v>4.879185747056212</v>
+        <v>48.22200778664074</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.34282203958154</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I32" t="n">
         <v>102.9155217242246</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J34" t="n">
-        <v>4.879185747056212</v>
+        <v>48.22200778664165</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.34282203958154</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="36">
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>152.0967589308329</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.850750924965</v>
@@ -30083,7 +30083,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30119,10 +30119,10 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>39.20753011443168</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30153,19 +30153,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>23.15783930347982</v>
       </c>
       <c r="I37" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.879185747056226</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,19 +30195,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V37" t="n">
-        <v>37.97655307769799</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X37" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242246</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I39" t="n">
-        <v>38.00095315743245</v>
+        <v>38.00095315743246</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,10 +30356,10 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V39" t="n">
-        <v>39.20753011443324</v>
+        <v>39.20753011443168</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30387,19 +30387,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.8149057650245</v>
+        <v>117.8149057650246</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,22 +30429,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
-        <v>106.8337085986254</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>108.8178757158967</v>
       </c>
       <c r="X40" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242246</v>
@@ -30514,19 +30514,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="42">
@@ -30545,10 +30545,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
@@ -30557,7 +30557,7 @@
         <v>97.8184650408086</v>
       </c>
       <c r="I42" t="n">
-        <v>38.00095315743245</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,13 +30590,13 @@
         <v>143.95569295046</v>
       </c>
       <c r="T42" t="n">
-        <v>150.5985585174364</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>77.20848327186408</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30618,25 +30618,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8149057650246</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>219.95748805235</v>
+        <v>184.4105157242678</v>
       </c>
       <c r="V43" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.5120352516321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I44" t="n">
         <v>102.9155217242246</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="45">
@@ -30830,10 +30830,10 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V45" t="n">
-        <v>77.20848327186633</v>
+        <v>77.20848327186408</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30867,13 +30867,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I46" t="n">
-        <v>117.8149057650245</v>
+        <v>117.8149057650246</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>105.460873898371</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>204.7160473672794</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X46" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H26" t="n">
         <v>28.57279339095268</v>
@@ -32947,16 +32947,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K26" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L26" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M26" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N26" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O26" t="n">
         <v>470.0787738264256</v>
@@ -32971,13 +32971,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S26" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T26" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H27" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I27" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J27" t="n">
         <v>141.0336734124942</v>
@@ -33029,7 +33029,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L27" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M27" t="n">
         <v>378.2329192256529</v>
@@ -33047,16 +33047,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R27" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S27" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T27" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I28" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J28" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K28" t="n">
         <v>145.3998107295486</v>
@@ -33117,7 +33117,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O28" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P28" t="n">
         <v>151.3614305121999</v>
@@ -33126,16 +33126,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R28" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S28" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T28" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H29" t="n">
         <v>28.57279339095268</v>
@@ -33184,16 +33184,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K29" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L29" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M29" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N29" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O29" t="n">
         <v>470.0787738264256</v>
@@ -33208,13 +33208,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S29" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T29" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H30" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I30" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J30" t="n">
         <v>141.0336734124942</v>
@@ -33266,7 +33266,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L30" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M30" t="n">
         <v>378.2329192256529</v>
@@ -33284,16 +33284,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R30" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S30" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T30" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I31" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J31" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K31" t="n">
         <v>145.3998107295486</v>
@@ -33354,7 +33354,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O31" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P31" t="n">
         <v>151.3614305121999</v>
@@ -33363,16 +33363,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R31" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S31" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T31" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H32" t="n">
         <v>28.57279339095268</v>
@@ -33421,16 +33421,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K32" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L32" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M32" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N32" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O32" t="n">
         <v>470.0787738264256</v>
@@ -33445,13 +33445,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S32" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T32" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H33" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I33" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J33" t="n">
         <v>141.0336734124942</v>
@@ -33503,7 +33503,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L33" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M33" t="n">
         <v>378.2329192256529</v>
@@ -33521,16 +33521,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R33" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S33" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T33" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I34" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J34" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K34" t="n">
         <v>145.3998107295486</v>
@@ -33591,7 +33591,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O34" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P34" t="n">
         <v>151.3614305121999</v>
@@ -33600,16 +33600,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R34" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S34" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T34" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H35" t="n">
         <v>28.57279339095268</v>
@@ -33658,16 +33658,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K35" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L35" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M35" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N35" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O35" t="n">
         <v>470.0787738264256</v>
@@ -33682,13 +33682,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S35" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T35" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H36" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I36" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J36" t="n">
         <v>141.0336734124942</v>
@@ -33740,7 +33740,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L36" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M36" t="n">
         <v>378.2329192256529</v>
@@ -33758,16 +33758,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R36" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S36" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T36" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I37" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J37" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K37" t="n">
         <v>145.3998107295486</v>
@@ -33828,7 +33828,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O37" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P37" t="n">
         <v>151.3614305121999</v>
@@ -33837,16 +33837,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R37" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S37" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T37" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H38" t="n">
         <v>28.57279339095268</v>
@@ -33895,16 +33895,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K38" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L38" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M38" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N38" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O38" t="n">
         <v>470.0787738264256</v>
@@ -33919,13 +33919,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S38" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T38" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H39" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I39" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J39" t="n">
         <v>141.0336734124942</v>
@@ -33977,7 +33977,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L39" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M39" t="n">
         <v>378.2329192256529</v>
@@ -33995,16 +33995,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R39" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S39" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T39" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I40" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J40" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K40" t="n">
         <v>145.3998107295486</v>
@@ -34065,7 +34065,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O40" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P40" t="n">
         <v>151.3614305121999</v>
@@ -34074,16 +34074,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R40" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S40" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T40" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H41" t="n">
         <v>28.57279339095268</v>
@@ -34132,16 +34132,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K41" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L41" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M41" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N41" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O41" t="n">
         <v>470.0787738264256</v>
@@ -34156,13 +34156,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S41" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T41" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H42" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I42" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J42" t="n">
         <v>141.0336734124942</v>
@@ -34214,7 +34214,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L42" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M42" t="n">
         <v>378.2329192256529</v>
@@ -34232,16 +34232,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R42" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S42" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T42" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I43" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J43" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K43" t="n">
         <v>145.3998107295486</v>
@@ -34302,7 +34302,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O43" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P43" t="n">
         <v>151.3614305121999</v>
@@ -34311,16 +34311,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R43" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S43" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T43" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918972</v>
       </c>
       <c r="H44" t="n">
         <v>28.57279339095268</v>
@@ -34369,16 +34369,16 @@
         <v>236.7953250887706</v>
       </c>
       <c r="K44" t="n">
-        <v>354.8948094524008</v>
+        <v>354.8948094524007</v>
       </c>
       <c r="L44" t="n">
-        <v>440.2783930714286</v>
+        <v>440.2783930714285</v>
       </c>
       <c r="M44" t="n">
-        <v>489.8945448562552</v>
+        <v>489.894544856255</v>
       </c>
       <c r="N44" t="n">
-        <v>497.8215507610075</v>
+        <v>497.8215507610074</v>
       </c>
       <c r="O44" t="n">
         <v>470.0787738264256</v>
@@ -34393,13 +34393,13 @@
         <v>175.2555335378428</v>
       </c>
       <c r="S44" t="n">
-        <v>63.57647058672865</v>
+        <v>63.57647058672864</v>
       </c>
       <c r="T44" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535177</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.49276623824561</v>
       </c>
       <c r="H45" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568786</v>
       </c>
       <c r="I45" t="n">
-        <v>51.39567969398263</v>
+        <v>51.39567969398262</v>
       </c>
       <c r="J45" t="n">
         <v>141.0336734124942</v>
@@ -34451,7 +34451,7 @@
         <v>241.0490113749501</v>
       </c>
       <c r="L45" t="n">
-        <v>324.1201430892497</v>
+        <v>324.1201430892496</v>
       </c>
       <c r="M45" t="n">
         <v>378.2329192256529</v>
@@ -34469,16 +34469,16 @@
         <v>190.5503008679835</v>
       </c>
       <c r="R45" t="n">
-        <v>92.6824511780915</v>
+        <v>92.68245117809148</v>
       </c>
       <c r="S45" t="n">
-        <v>27.72747815337787</v>
+        <v>27.72747815337786</v>
       </c>
       <c r="T45" t="n">
         <v>6.016895495384714</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09820830514773753</v>
+        <v>0.09820830514773751</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.12683997601711</v>
       </c>
       <c r="I46" t="n">
-        <v>37.63556916223373</v>
+        <v>37.63556916223372</v>
       </c>
       <c r="J46" t="n">
-        <v>88.47999436961656</v>
+        <v>88.47999436961655</v>
       </c>
       <c r="K46" t="n">
         <v>145.3998107295486</v>
@@ -34539,7 +34539,7 @@
         <v>191.5113469491779</v>
       </c>
       <c r="O46" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172944</v>
       </c>
       <c r="P46" t="n">
         <v>151.3614305121999</v>
@@ -34548,16 +34548,16 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R46" t="n">
-        <v>56.27131955151388</v>
+        <v>56.27131955151387</v>
       </c>
       <c r="S46" t="n">
         <v>21.80997160943229</v>
       </c>
       <c r="T46" t="n">
-        <v>5.347254385202492</v>
+        <v>5.347254385202491</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06826282193875531</v>
+        <v>0.0682628219387553</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>14.19604674582757</v>
       </c>
       <c r="K12" t="n">
-        <v>304.9714831265719</v>
+        <v>304.9714831265715</v>
       </c>
       <c r="L12" t="n">
         <v>185.5657633093755</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.19604674582754</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K15" t="n">
-        <v>304.9714831265725</v>
+        <v>103.2075724005911</v>
       </c>
       <c r="L15" t="n">
         <v>185.5657633093755</v>
@@ -35744,7 +35744,7 @@
         <v>151.0784718871494</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.56852678196196</v>
+        <v>126.2414021675338</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>204.5119781014414</v>
       </c>
       <c r="M17" t="n">
-        <v>259.5483116289827</v>
+        <v>259.5483116289818</v>
       </c>
       <c r="N17" t="n">
         <v>268.4084871644166</v>
@@ -35972,7 +35972,7 @@
         <v>236.0988853036346</v>
       </c>
       <c r="N18" t="n">
-        <v>356.5898935450526</v>
+        <v>256.9019070470457</v>
       </c>
       <c r="O18" t="n">
         <v>212.5708175121766</v>
@@ -35981,7 +35981,7 @@
         <v>151.0784718871494</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.6444510099364</v>
+        <v>252.3324375079423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>14.19604674582754</v>
       </c>
       <c r="K21" t="n">
-        <v>103.2075724005911</v>
+        <v>304.9714831265713</v>
       </c>
       <c r="L21" t="n">
         <v>185.5657633093755</v>
@@ -36218,7 +36218,7 @@
         <v>151.0784718871494</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.3324375079432</v>
+        <v>50.56852678196196</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>140.2870820862364</v>
+        <v>14.19604674582752</v>
       </c>
       <c r="K24" t="n">
         <v>103.2075724005911</v>
@@ -36455,7 +36455,7 @@
         <v>151.0784718871494</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.241402167534</v>
+        <v>252.3324375079423</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>63.62808814427367</v>
+        <v>224.8460357341581</v>
       </c>
       <c r="K26" t="n">
-        <v>134.8049584074202</v>
+        <v>269.7870267417292</v>
       </c>
       <c r="L26" t="n">
-        <v>622.1731926518919</v>
+        <v>622.1731926518917</v>
       </c>
       <c r="M26" t="n">
-        <v>709.0618451218149</v>
+        <v>259.5483116289823</v>
       </c>
       <c r="N26" t="n">
-        <v>705.7554115764008</v>
+        <v>705.7554115764005</v>
       </c>
       <c r="O26" t="n">
-        <v>620.7807436674842</v>
+        <v>239.9805624047388</v>
       </c>
       <c r="P26" t="n">
-        <v>169.9683620487814</v>
+        <v>491.767070220264</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.97982139587813</v>
+        <v>291.2948120557828</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>367.6728094131697</v>
       </c>
       <c r="L27" t="n">
-        <v>556.4061086128347</v>
+        <v>556.4061086128346</v>
       </c>
       <c r="M27" t="n">
-        <v>315.7564306358634</v>
+        <v>315.7564306358641</v>
       </c>
       <c r="N27" t="n">
         <v>256.9019070470457</v>
       </c>
       <c r="O27" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P27" t="n">
         <v>469.5412405270866</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.6458145178111</v>
+        <v>260.645814517811</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.34282203958453</v>
       </c>
       <c r="K28" t="n">
-        <v>166.4731409432502</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L28" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M28" t="n">
         <v>235.7598500768333</v>
@@ -36771,7 +36771,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.6327655612847</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7268631504215</v>
+        <v>55.74942056208428</v>
       </c>
       <c r="K29" t="n">
-        <v>134.8049584074202</v>
+        <v>134.8049584074201</v>
       </c>
       <c r="L29" t="n">
-        <v>622.1731926518919</v>
+        <v>204.5119781014413</v>
       </c>
       <c r="M29" t="n">
-        <v>709.0618451218149</v>
+        <v>575.1016128263778</v>
       </c>
       <c r="N29" t="n">
-        <v>705.7554115764008</v>
+        <v>705.7554115764005</v>
       </c>
       <c r="O29" t="n">
-        <v>239.9805624047389</v>
+        <v>620.7807436674842</v>
       </c>
       <c r="P29" t="n">
-        <v>169.9683620487814</v>
+        <v>491.767070220264</v>
       </c>
       <c r="Q29" t="n">
         <v>291.2948120557828</v>
       </c>
       <c r="R29" t="n">
-        <v>25.38641559669313</v>
+        <v>25.3864155966931</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>367.6728094131697</v>
       </c>
       <c r="L30" t="n">
-        <v>556.4061086128347</v>
+        <v>556.4061086128346</v>
       </c>
       <c r="M30" t="n">
-        <v>315.7564306358634</v>
+        <v>315.7564306358641</v>
       </c>
       <c r="N30" t="n">
         <v>256.9019070470457</v>
       </c>
       <c r="O30" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P30" t="n">
         <v>469.5412405270866</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.6458145178111</v>
+        <v>260.645814517811</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.34282203958451</v>
       </c>
       <c r="K31" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L31" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M31" t="n">
         <v>235.7598500768333</v>
@@ -37008,7 +37008,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.97558760086624</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.74942056208431</v>
+        <v>224.8460357341581</v>
       </c>
       <c r="K32" t="n">
         <v>458.9503709785849</v>
       </c>
       <c r="L32" t="n">
-        <v>204.5119781014414</v>
+        <v>464.1701759675822</v>
       </c>
       <c r="M32" t="n">
-        <v>709.0618451218149</v>
+        <v>259.5483116289823</v>
       </c>
       <c r="N32" t="n">
-        <v>705.7554115764008</v>
+        <v>268.4084871644164</v>
       </c>
       <c r="O32" t="n">
-        <v>400.3765050574767</v>
+        <v>620.7807436674842</v>
       </c>
       <c r="P32" t="n">
         <v>491.767070220264</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.97982139587813</v>
+        <v>291.2948120557828</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>25.3864155966931</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>367.6728094131697</v>
       </c>
       <c r="L33" t="n">
-        <v>556.4061086128347</v>
+        <v>556.4061086128346</v>
       </c>
       <c r="M33" t="n">
-        <v>315.7564306358634</v>
+        <v>315.7564306358641</v>
       </c>
       <c r="N33" t="n">
         <v>256.9019070470457</v>
       </c>
       <c r="O33" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P33" t="n">
         <v>469.5412405270866</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.6458145178111</v>
+        <v>260.645814517811</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.34282203958543</v>
       </c>
       <c r="K34" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L34" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M34" t="n">
         <v>235.7598500768333</v>
@@ -37245,7 +37245,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.97558760086624</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.74942056208431</v>
+        <v>55.74942056208428</v>
       </c>
       <c r="K35" t="n">
-        <v>134.8049584074202</v>
+        <v>134.8049584074201</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5119781014414</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="M35" t="n">
-        <v>427.61951941</v>
+        <v>317.6893899068849</v>
       </c>
       <c r="N35" t="n">
-        <v>381.5858989698579</v>
+        <v>268.4084871644164</v>
       </c>
       <c r="O35" t="n">
-        <v>239.9805624047389</v>
+        <v>239.9805624047388</v>
       </c>
       <c r="P35" t="n">
-        <v>169.9683620487814</v>
+        <v>169.9683620487813</v>
       </c>
       <c r="Q35" t="n">
         <v>78.97982139587813</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.19604674582754</v>
+        <v>14.19604674582752</v>
       </c>
       <c r="K36" t="n">
-        <v>103.2075724005911</v>
+        <v>367.6728094131697</v>
       </c>
       <c r="L36" t="n">
-        <v>185.5657633093755</v>
+        <v>185.5657633093754</v>
       </c>
       <c r="M36" t="n">
         <v>236.0988853036346</v>
@@ -37397,13 +37397,13 @@
         <v>256.9019070470457</v>
       </c>
       <c r="O36" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P36" t="n">
-        <v>424.0137144637397</v>
+        <v>159.5484774511639</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.6458145178111</v>
+        <v>260.645814517811</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L37" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M37" t="n">
         <v>235.7598500768333</v>
@@ -37482,7 +37482,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.6327655612847</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>143.5404167708332</v>
+        <v>55.74942056208428</v>
       </c>
       <c r="K38" t="n">
-        <v>134.8049584074202</v>
+        <v>134.8049584074201</v>
       </c>
       <c r="L38" t="n">
-        <v>204.5119781014414</v>
+        <v>204.5119781014413</v>
       </c>
       <c r="M38" t="n">
-        <v>427.6195194100002</v>
+        <v>259.5483116289823</v>
       </c>
       <c r="N38" t="n">
-        <v>268.4084871644166</v>
+        <v>268.4084871644164</v>
       </c>
       <c r="O38" t="n">
-        <v>239.9805624047389</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="P38" t="n">
-        <v>169.9683620487814</v>
+        <v>169.9683620487813</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.97982139587813</v>
+        <v>172.5894839770781</v>
       </c>
       <c r="R38" t="n">
-        <v>25.38641559669313</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.19604674582754</v>
+        <v>140.2870820862364</v>
       </c>
       <c r="K39" t="n">
-        <v>309.6790551901807</v>
+        <v>250.0517796367757</v>
       </c>
       <c r="L39" t="n">
-        <v>185.5657633093755</v>
+        <v>185.5657633093754</v>
       </c>
       <c r="M39" t="n">
         <v>236.0988853036346</v>
@@ -37634,13 +37634,13 @@
         <v>256.9019070470457</v>
       </c>
       <c r="O39" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P39" t="n">
-        <v>427.6195194100002</v>
+        <v>151.0784718871494</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.56852678196196</v>
+        <v>260.645814517811</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L40" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M40" t="n">
         <v>235.7598500768333</v>
@@ -37719,7 +37719,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.6327655612847</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>224.8460357341581</v>
       </c>
       <c r="K41" t="n">
-        <v>134.8049584074202</v>
+        <v>134.8049584074201</v>
       </c>
       <c r="L41" t="n">
-        <v>204.5119781014414</v>
+        <v>204.5119781014413</v>
       </c>
       <c r="M41" t="n">
-        <v>259.5483116289824</v>
+        <v>259.5483116289823</v>
       </c>
       <c r="N41" t="n">
-        <v>268.4084871644166</v>
+        <v>268.4084871644164</v>
       </c>
       <c r="O41" t="n">
-        <v>239.9805624047389</v>
+        <v>239.9805624047388</v>
       </c>
       <c r="P41" t="n">
-        <v>169.9683620487814</v>
+        <v>169.9683620487813</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.74541021357</v>
+        <v>191.131825810266</v>
       </c>
       <c r="R41" t="n">
-        <v>25.38641559669313</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.19604674582754</v>
+        <v>14.19604674582752</v>
       </c>
       <c r="K42" t="n">
-        <v>309.6790551901801</v>
+        <v>309.6790551901825</v>
       </c>
       <c r="L42" t="n">
-        <v>185.5657633093755</v>
+        <v>185.5657633093754</v>
       </c>
       <c r="M42" t="n">
         <v>236.0988853036346</v>
@@ -37871,13 +37871,13 @@
         <v>256.9019070470457</v>
       </c>
       <c r="O42" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P42" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194100006</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.56852678196196</v>
+        <v>50.56852678196194</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L43" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M43" t="n">
         <v>235.7598500768333</v>
@@ -37956,7 +37956,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.6327655612847</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>224.8460357341581</v>
       </c>
       <c r="K44" t="n">
-        <v>134.8049584074202</v>
+        <v>134.8049584074201</v>
       </c>
       <c r="L44" t="n">
-        <v>204.5119781014414</v>
+        <v>204.5119781014413</v>
       </c>
       <c r="M44" t="n">
-        <v>259.5483116289824</v>
+        <v>259.5483116289823</v>
       </c>
       <c r="N44" t="n">
-        <v>268.4084871644166</v>
+        <v>268.4084871644164</v>
       </c>
       <c r="O44" t="n">
-        <v>239.9805624047389</v>
+        <v>239.9805624047388</v>
       </c>
       <c r="P44" t="n">
-        <v>169.9683620487814</v>
+        <v>169.9683620487813</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.7454102135703</v>
+        <v>191.131825810266</v>
       </c>
       <c r="R44" t="n">
-        <v>25.38641559669313</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>22.66605230983949</v>
+        <v>14.19604674582752</v>
       </c>
       <c r="K45" t="n">
-        <v>367.6728094131697</v>
+        <v>103.2075724005911</v>
       </c>
       <c r="L45" t="n">
-        <v>185.5657633093755</v>
+        <v>185.5657633093754</v>
       </c>
       <c r="M45" t="n">
         <v>236.0988853036346</v>
@@ -38108,13 +38108,13 @@
         <v>256.9019070470457</v>
       </c>
       <c r="O45" t="n">
-        <v>212.5708175121766</v>
+        <v>212.5708175121765</v>
       </c>
       <c r="P45" t="n">
-        <v>151.0784718871494</v>
+        <v>424.0137144637427</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.6458145178111</v>
+        <v>260.645814517811</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036657</v>
       </c>
       <c r="L46" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913833</v>
       </c>
       <c r="M46" t="n">
         <v>235.7598500768333</v>
@@ -38193,7 +38193,7 @@
         <v>148.6399897770933</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.6327655612847</v>
+        <v>18.63276556128467</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
